--- a/biology/Histoire de la zoologie et de la botanique/József_Jakab_Winterl/József_Jakab_Winterl.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/József_Jakab_Winterl/József_Jakab_Winterl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%B3zsef_Jakab_Winterl</t>
+          <t>József_Jakab_Winterl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">József Jakab (ou Joseph Jacob) Winterl est un chimiste et un botaniste hongrois, né le 15 avril 1739 à Steyr[1] ou à Eisenerz[2] et mort le 23 novembre 1809 à Pest.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">József Jakab (ou Joseph Jacob) Winterl est un chimiste et un botaniste hongrois, né le 15 avril 1739 à Steyr ou à Eisenerz et mort le 23 novembre 1809 à Pest.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%B3zsef_Jakab_Winterl</t>
+          <t>József_Jakab_Winterl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il enseigne la chimie et la botanique à l’université de Nagyszombat puis à celle de Pest. Il dirige également le jardin botanique de Buda.
 </t>
